--- a/experiment_results/Summary.xlsx
+++ b/experiment_results/Summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Honors Project\best_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s1614973_ed_ac_uk/Documents/Every Day Files/Documents/Microsoft Office/Word/Homework/University/Year 4/Honours Project/Contextualised-CNN/experiment_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A7471E3-03D9-4137-8734-7F2F7E9D941F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{1A7471E3-03D9-4137-8734-7F2F7E9D941F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D776B74-E3E3-4866-BA9E-F0485CB99E6B}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="-4530" windowWidth="19365" windowHeight="12315" activeTab="1" xr2:uid="{928605BA-143D-4891-8A74-6313E75749F9}"/>
+    <workbookView xWindow="-1580" yWindow="13850" windowWidth="21600" windowHeight="11390" activeTab="3" xr2:uid="{928605BA-143D-4891-8A74-6313E75749F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation Pre-Training" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71118A6A-9A0D-43ED-9C49-DFECD5A5D053}">
   <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9724C10-DB56-453A-9564-25141446C0D8}">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,5 +918,6 @@
     <mergeCell ref="C11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>